--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Lrpap1-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Lrpap1-Lrp1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.191447666666667</v>
+        <v>7.892066666666667</v>
       </c>
       <c r="H2">
-        <v>24.574343</v>
+        <v>23.6762</v>
       </c>
       <c r="I2">
-        <v>0.185794284429433</v>
+        <v>0.1739002798877711</v>
       </c>
       <c r="J2">
-        <v>0.185794284429433</v>
+        <v>0.1739002798877711</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.131233999999999</v>
+        <v>3.795192333333334</v>
       </c>
       <c r="N2">
-        <v>24.393702</v>
+        <v>11.385577</v>
       </c>
       <c r="O2">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="P2">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="Q2">
-        <v>66.60657777642066</v>
+        <v>29.9519109074889</v>
       </c>
       <c r="R2">
-        <v>599.459199987786</v>
+        <v>269.5671981674</v>
       </c>
       <c r="S2">
-        <v>0.00388495026233587</v>
+        <v>0.001815890643810962</v>
       </c>
       <c r="T2">
-        <v>0.00388495026233587</v>
+        <v>0.001815890643810962</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.191447666666667</v>
+        <v>7.892066666666667</v>
       </c>
       <c r="H3">
-        <v>24.574343</v>
+        <v>23.6762</v>
       </c>
       <c r="I3">
-        <v>0.185794284429433</v>
+        <v>0.1739002798877711</v>
       </c>
       <c r="J3">
-        <v>0.185794284429433</v>
+        <v>0.1739002798877711</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,25 +620,25 @@
         <v>243.3763986666667</v>
       </c>
       <c r="N3">
-        <v>730.129196</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O3">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="P3">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="Q3">
-        <v>1993.605032979803</v>
+        <v>1920.742763370578</v>
       </c>
       <c r="R3">
-        <v>17942.44529681823</v>
+        <v>17286.6848703352</v>
       </c>
       <c r="S3">
-        <v>0.116280653569486</v>
+        <v>0.1164486240609167</v>
       </c>
       <c r="T3">
-        <v>0.116280653569486</v>
+        <v>0.1164486240609167</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.191447666666667</v>
+        <v>7.892066666666667</v>
       </c>
       <c r="H4">
-        <v>24.574343</v>
+        <v>23.6762</v>
       </c>
       <c r="I4">
-        <v>0.185794284429433</v>
+        <v>0.1739002798877711</v>
       </c>
       <c r="J4">
-        <v>0.185794284429433</v>
+        <v>0.1739002798877711</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.41874933333333</v>
+        <v>29.801371</v>
       </c>
       <c r="N4">
-        <v>100.256248</v>
+        <v>89.404113</v>
       </c>
       <c r="O4">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219236</v>
       </c>
       <c r="P4">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219235</v>
       </c>
       <c r="Q4">
-        <v>273.7479362494515</v>
+        <v>235.1944066900667</v>
       </c>
       <c r="R4">
-        <v>2463.731426245064</v>
+        <v>2116.7496602106</v>
       </c>
       <c r="S4">
-        <v>0.01596684820403275</v>
+        <v>0.01425910099373251</v>
       </c>
       <c r="T4">
-        <v>0.01596684820403275</v>
+        <v>0.01425910099373251</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.191447666666667</v>
+        <v>7.892066666666667</v>
       </c>
       <c r="H5">
-        <v>24.574343</v>
+        <v>23.6762</v>
       </c>
       <c r="I5">
-        <v>0.185794284429433</v>
+        <v>0.1739002798877711</v>
       </c>
       <c r="J5">
-        <v>0.185794284429433</v>
+        <v>0.1739002798877711</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>103.9426383333333</v>
+        <v>86.47679266666667</v>
       </c>
       <c r="N5">
-        <v>311.827915</v>
+        <v>259.430378</v>
       </c>
       <c r="O5">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="P5">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="Q5">
-        <v>851.4406822427604</v>
+        <v>682.4806128448445</v>
       </c>
       <c r="R5">
-        <v>7662.966140184845</v>
+        <v>6142.325515603601</v>
       </c>
       <c r="S5">
-        <v>0.04966183239357836</v>
+        <v>0.04137666418931085</v>
       </c>
       <c r="T5">
-        <v>0.04966183239357836</v>
+        <v>0.04137666418931085</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>51.95310600000001</v>
       </c>
       <c r="I6">
-        <v>0.3927913821808576</v>
+        <v>0.3815924715300191</v>
       </c>
       <c r="J6">
-        <v>0.3927913821808576</v>
+        <v>0.3815924715300191</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.131233999999999</v>
+        <v>3.795192333333334</v>
       </c>
       <c r="N6">
-        <v>24.393702</v>
+        <v>11.385577</v>
       </c>
       <c r="O6">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="P6">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="Q6">
-        <v>140.814287304268</v>
+        <v>65.72400986135135</v>
       </c>
       <c r="R6">
-        <v>1267.328585738412</v>
+        <v>591.5160887521621</v>
       </c>
       <c r="S6">
-        <v>0.008213250412589393</v>
+        <v>0.003984641078480464</v>
       </c>
       <c r="T6">
-        <v>0.008213250412589393</v>
+        <v>0.003984641078480465</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>51.95310600000001</v>
       </c>
       <c r="I7">
-        <v>0.3927913821808576</v>
+        <v>0.3815924715300191</v>
       </c>
       <c r="J7">
-        <v>0.3927913821808576</v>
+        <v>0.3815924715300191</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,25 +868,25 @@
         <v>243.3763986666667</v>
       </c>
       <c r="N7">
-        <v>730.129196</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O7">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="P7">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="Q7">
         <v>4214.719945942531</v>
       </c>
       <c r="R7">
-        <v>37932.47951348278</v>
+        <v>37932.47951348279</v>
       </c>
       <c r="S7">
-        <v>0.2458312362875698</v>
+        <v>0.2555252831700593</v>
       </c>
       <c r="T7">
-        <v>0.2458312362875698</v>
+        <v>0.2555252831700593</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>51.95310600000001</v>
       </c>
       <c r="I8">
-        <v>0.3927913821808576</v>
+        <v>0.3815924715300191</v>
       </c>
       <c r="J8">
-        <v>0.3927913821808576</v>
+        <v>0.3815924715300191</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>33.41874933333333</v>
+        <v>29.801371</v>
       </c>
       <c r="N8">
-        <v>100.256248</v>
+        <v>89.404113</v>
       </c>
       <c r="O8">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219236</v>
       </c>
       <c r="P8">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219235</v>
       </c>
       <c r="Q8">
-        <v>578.7359421673654</v>
+        <v>516.091262169442</v>
       </c>
       <c r="R8">
-        <v>5208.623479506288</v>
+        <v>4644.821359524978</v>
       </c>
       <c r="S8">
-        <v>0.03375583051111572</v>
+        <v>0.03128899846225705</v>
       </c>
       <c r="T8">
-        <v>0.03375583051111572</v>
+        <v>0.03128899846225704</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>51.95310600000001</v>
       </c>
       <c r="I9">
-        <v>0.3927913821808576</v>
+        <v>0.3815924715300191</v>
       </c>
       <c r="J9">
-        <v>0.3927913821808576</v>
+        <v>0.3815924715300191</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>103.9426383333333</v>
+        <v>86.47679266666667</v>
       </c>
       <c r="N9">
-        <v>311.827915</v>
+        <v>259.430378</v>
       </c>
       <c r="O9">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="P9">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="Q9">
-        <v>1800.047635750443</v>
+        <v>1497.579325317119</v>
       </c>
       <c r="R9">
-        <v>16200.42872175399</v>
+        <v>13478.21392785407</v>
       </c>
       <c r="S9">
-        <v>0.1049910649695827</v>
+        <v>0.09079354881922228</v>
       </c>
       <c r="T9">
-        <v>0.1049910649695827</v>
+        <v>0.09079354881922229</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.228371</v>
+        <v>7.716272666666666</v>
       </c>
       <c r="H10">
-        <v>18.685113</v>
+        <v>23.148818</v>
       </c>
       <c r="I10">
-        <v>0.1412687695991749</v>
+        <v>0.1700266904854272</v>
       </c>
       <c r="J10">
-        <v>0.1412687695991749</v>
+        <v>0.1700266904854272</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.131233999999999</v>
+        <v>3.795192333333334</v>
       </c>
       <c r="N10">
-        <v>24.393702</v>
+        <v>11.385577</v>
       </c>
       <c r="O10">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="P10">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="Q10">
-        <v>50.644342039814</v>
+        <v>29.28473886644289</v>
       </c>
       <c r="R10">
-        <v>455.799078358326</v>
+        <v>263.562649797986</v>
       </c>
       <c r="S10">
-        <v>0.002953923718372669</v>
+        <v>0.001775442090431859</v>
       </c>
       <c r="T10">
-        <v>0.002953923718372669</v>
+        <v>0.001775442090431859</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.228371</v>
+        <v>7.716272666666666</v>
       </c>
       <c r="H11">
-        <v>18.685113</v>
+        <v>23.148818</v>
       </c>
       <c r="I11">
-        <v>0.1412687695991749</v>
+        <v>0.1700266904854272</v>
       </c>
       <c r="J11">
-        <v>0.1412687695991749</v>
+        <v>0.1700266904854272</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,25 +1116,25 @@
         <v>243.3763986666667</v>
       </c>
       <c r="N11">
-        <v>730.129196</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O11">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="P11">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="Q11">
-        <v>1515.838503539905</v>
+        <v>1877.95865274337</v>
       </c>
       <c r="R11">
-        <v>13642.54653185915</v>
+        <v>16901.62787469033</v>
       </c>
       <c r="S11">
-        <v>0.08841404841055973</v>
+        <v>0.1138547572979018</v>
       </c>
       <c r="T11">
-        <v>0.08841404841055972</v>
+        <v>0.1138547572979018</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.228371</v>
+        <v>7.716272666666666</v>
       </c>
       <c r="H12">
-        <v>18.685113</v>
+        <v>23.148818</v>
       </c>
       <c r="I12">
-        <v>0.1412687695991749</v>
+        <v>0.1700266904854272</v>
       </c>
       <c r="J12">
-        <v>0.1412687695991749</v>
+        <v>0.1700266904854272</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>33.41874933333333</v>
+        <v>29.801371</v>
       </c>
       <c r="N12">
-        <v>100.256248</v>
+        <v>89.404113</v>
       </c>
       <c r="O12">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219236</v>
       </c>
       <c r="P12">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219235</v>
       </c>
       <c r="Q12">
-        <v>208.1443692040027</v>
+        <v>229.9555044764926</v>
       </c>
       <c r="R12">
-        <v>1873.299322836024</v>
+        <v>2069.599540288434</v>
       </c>
       <c r="S12">
-        <v>0.01214040037392654</v>
+        <v>0.01394148274417064</v>
       </c>
       <c r="T12">
-        <v>0.01214040037392653</v>
+        <v>0.01394148274417064</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.228371</v>
+        <v>7.716272666666666</v>
       </c>
       <c r="H13">
-        <v>18.685113</v>
+        <v>23.148818</v>
       </c>
       <c r="I13">
-        <v>0.1412687695991749</v>
+        <v>0.1700266904854272</v>
       </c>
       <c r="J13">
-        <v>0.1412687695991749</v>
+        <v>0.1700266904854272</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>103.9426383333333</v>
+        <v>86.47679266666667</v>
       </c>
       <c r="N13">
-        <v>311.827915</v>
+        <v>259.430378</v>
       </c>
       <c r="O13">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="P13">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="Q13">
-        <v>647.3933142588216</v>
+        <v>667.2785115548004</v>
       </c>
       <c r="R13">
-        <v>5826.539828329394</v>
+        <v>6005.506603993204</v>
       </c>
       <c r="S13">
-        <v>0.03776039709631595</v>
+        <v>0.04045500835292294</v>
       </c>
       <c r="T13">
-        <v>0.03776039709631594</v>
+        <v>0.04045500835292295</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>12.35128266666667</v>
+        <v>12.45667266666667</v>
       </c>
       <c r="H14">
-        <v>37.053848</v>
+        <v>37.370018</v>
       </c>
       <c r="I14">
-        <v>0.2801455637905346</v>
+        <v>0.2744805580967825</v>
       </c>
       <c r="J14">
-        <v>0.2801455637905346</v>
+        <v>0.2744805580967826</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.131233999999999</v>
+        <v>3.795192333333334</v>
       </c>
       <c r="N14">
-        <v>24.393702</v>
+        <v>11.385577</v>
       </c>
       <c r="O14">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="P14">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="Q14">
-        <v>100.4311695628107</v>
+        <v>47.27546860337623</v>
       </c>
       <c r="R14">
-        <v>903.880526065296</v>
+        <v>425.4792174303861</v>
       </c>
       <c r="S14">
-        <v>0.005857831336860297</v>
+        <v>0.002866163744403546</v>
       </c>
       <c r="T14">
-        <v>0.005857831336860295</v>
+        <v>0.002866163744403547</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>12.35128266666667</v>
+        <v>12.45667266666667</v>
       </c>
       <c r="H15">
-        <v>37.053848</v>
+        <v>37.370018</v>
       </c>
       <c r="I15">
-        <v>0.2801455637905346</v>
+        <v>0.2744805580967825</v>
       </c>
       <c r="J15">
-        <v>0.2801455637905346</v>
+        <v>0.2744805580967826</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,25 +1364,25 @@
         <v>243.3763986666667</v>
       </c>
       <c r="N15">
-        <v>730.129196</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O15">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="P15">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="Q15">
-        <v>3006.010694327357</v>
+        <v>3031.660132982837</v>
       </c>
       <c r="R15">
-        <v>27054.09624894621</v>
+        <v>27284.94119684553</v>
       </c>
       <c r="S15">
-        <v>0.1753310622670316</v>
+        <v>0.1838000683062185</v>
       </c>
       <c r="T15">
-        <v>0.1753310622670316</v>
+        <v>0.1838000683062186</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>12.35128266666667</v>
+        <v>12.45667266666667</v>
       </c>
       <c r="H16">
-        <v>37.053848</v>
+        <v>37.370018</v>
       </c>
       <c r="I16">
-        <v>0.2801455637905346</v>
+        <v>0.2744805580967825</v>
       </c>
       <c r="J16">
-        <v>0.2801455637905346</v>
+        <v>0.2744805580967826</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>33.41874933333333</v>
+        <v>29.801371</v>
       </c>
       <c r="N16">
-        <v>100.256248</v>
+        <v>89.404113</v>
       </c>
       <c r="O16">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219236</v>
       </c>
       <c r="P16">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219235</v>
       </c>
       <c r="Q16">
-        <v>412.7644193824783</v>
+        <v>371.2259235648927</v>
       </c>
       <c r="R16">
-        <v>3714.879774442304</v>
+        <v>3341.033312084034</v>
       </c>
       <c r="S16">
-        <v>0.02407523840581628</v>
+        <v>0.02250626624203216</v>
       </c>
       <c r="T16">
-        <v>0.02407523840581628</v>
+        <v>0.02250626624203216</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>12.35128266666667</v>
+        <v>12.45667266666667</v>
       </c>
       <c r="H17">
-        <v>37.053848</v>
+        <v>37.370018</v>
       </c>
       <c r="I17">
-        <v>0.2801455637905346</v>
+        <v>0.2744805580967825</v>
       </c>
       <c r="J17">
-        <v>0.2801455637905346</v>
+        <v>0.2744805580967826</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>103.9426383333333</v>
+        <v>86.47679266666667</v>
       </c>
       <c r="N17">
-        <v>311.827915</v>
+        <v>259.430378</v>
       </c>
       <c r="O17">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="P17">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="Q17">
-        <v>1283.824907174102</v>
+        <v>1077.213099511867</v>
       </c>
       <c r="R17">
-        <v>11554.42416456692</v>
+        <v>9694.917895606804</v>
       </c>
       <c r="S17">
-        <v>0.07488143178082642</v>
+        <v>0.06530805980412827</v>
       </c>
       <c r="T17">
-        <v>0.0748814317808264</v>
+        <v>0.06530805980412828</v>
       </c>
     </row>
   </sheetData>
